--- a/ConsoleApp1/Sample/1-Input.xlsx
+++ b/ConsoleApp1/Sample/1-Input.xlsx
@@ -1042,9 +1042,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C05C989-4C71-4A60-975A-25281149B053}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{929085A0-411B-4F43-A79E-BE2B555B5E69}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86D61C4D-4CD8-4D79-84C1-32597E3C8E79}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F941F4B6-E89F-4437-BE44-BEF19D417CA4}"/>
 </file>